--- a/LearnTestNG/target/test-classes/ExcelFiles/Test1.xlsx
+++ b/LearnTestNG/target/test-classes/ExcelFiles/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a853684\IdeaProjects\LearnTestNG\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB21E5B-0BDE-4A35-9998-571A3E51B490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C90F50A-11B4-45EF-AC0D-17FBBE24D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32D09226-7034-4265-B6E4-33D82E8A7A68}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
